--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
@@ -55,12 +55,6 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -73,13 +67,22 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,13 +97,7 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -112,16 +109,19 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -136,7 +136,7 @@
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -145,7 +145,7 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -994,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,25 +1029,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1064,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1090,28 +1090,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1767,12 +1767,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,21 +1799,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1982,24 +1982,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,109 +2060,109 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2183,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,31 +2284,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -2316,45 +2316,45 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2407,12 +2407,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2868,21 +2868,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3048,33 +3048,33 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,22 +3097,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3188,24 +3188,24 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -3240,16 +3240,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,54 +3257,54 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3316,12 +3316,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3385,19 +3385,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3464,56 +3464,56 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -3577,22 +3577,22 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,22 +4070,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4097,18 +4097,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -4120,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4230,19 +4230,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -4274,19 +4274,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4303,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -4370,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4385,36 +4385,36 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4422,31 +4422,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4469,30 +4469,30 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4568,21 +4568,21 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
@@ -55,6 +55,12 @@
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -67,22 +73,13 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,22 +91,19 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -118,13 +112,22 @@
     <t>Clicks on forum</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -133,19 +136,16 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,31 +1026,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,28 +1058,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1122,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1767,12 +1767,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,18 +1799,18 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1982,24 +1982,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2087,117 +2087,117 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2229,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,31 +2284,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2343,44 +2343,44 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2407,12 +2407,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,16 +2540,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,36 +3083,36 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3124,18 +3124,18 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3179,24 +3179,24 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3225,16 +3225,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,22 +3289,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3316,12 +3316,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3403,13 +3403,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3464,59 +3464,59 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -3577,22 +3577,22 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3604,12 +3604,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3983,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,13 +4070,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -4097,12 +4097,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,24 +4120,24 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -4152,21 +4152,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -4198,13 +4198,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -4245,24 +4245,24 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4274,33 +4274,33 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4385,47 +4385,47 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4434,19 +4434,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4454,39 +4454,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4513,27 +4513,27 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,21 +4609,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4678,16 +4678,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
@@ -52,10 +52,10 @@
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Days with no interaction</t>
@@ -67,10 +67,10 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -94,6 +94,18 @@
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
@@ -106,28 +118,13 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -136,10 +133,13 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1122,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1250,28 +1250,28 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1767,12 +1767,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,18 +1799,18 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1964,10 +1964,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1982,24 +1982,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,22 +2028,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2087,132 +2087,132 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2348,39 +2348,39 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2407,12 +2407,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,16 +2540,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2599,12 +2599,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,21 +2868,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3060,12 +3060,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,36 +3083,36 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3124,12 +3124,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3156,12 +3156,12 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3173,19 +3173,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3193,16 +3193,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,39 +3289,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,12 +3700,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3937,21 +3937,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3983,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4079,13 +4079,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4102,16 +4102,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -4152,24 +4152,24 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,39 +4198,39 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4257,27 +4257,27 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4289,18 +4289,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,22 +4358,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4402,30 +4402,30 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4434,19 +4434,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4454,86 +4454,86 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4568,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,21 +4609,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25_no_assign.xlsx
@@ -58,9 +58,6 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -76,10 +73,16 @@
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -91,13 +94,22 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
   </si>
   <si>
     <t>Clicks on folder</t>
@@ -106,22 +118,10 @@
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -136,7 +136,7 @@
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -145,7 +145,7 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,19 +1026,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1186,28 +1186,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1767,12 +1767,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,18 +1799,18 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1831,12 +1831,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1982,21 +1982,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,19 +2028,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2060,109 +2060,109 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2183,18 +2183,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2215,18 +2215,18 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2247,27 +2247,27 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2279,21 +2279,21 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2375,50 +2375,50 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2439,18 +2439,18 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2471,18 +2471,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2503,18 +2503,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2535,18 +2535,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2567,18 +2567,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2599,18 +2599,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2631,18 +2631,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2663,18 +2663,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,16 +2873,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3097,10 +3097,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3144,36 +3144,36 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3193,19 +3193,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3417,31 +3417,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3476,12 +3476,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3937,12 +3937,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -4120,21 +4120,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4201,16 +4201,16 @@
         <v>24</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -4225,12 +4225,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4242,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4297,10 +4297,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4376,13 +4376,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4390,22 +4390,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4417,36 +4417,36 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4454,39 +4454,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4518,22 +4518,22 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4550,22 +4550,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4609,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
